--- a/docs/file.xlsx
+++ b/docs/file.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>Tabella 1</t>
   </si>
@@ -64,7 +64,7 @@
     <t>baz_3</t>
   </si>
   <si>
-    <t>Demo_4</t>
+    <t>Cc</t>
   </si>
   <si>
     <t>Foo_4</t>
@@ -76,9 +76,6 @@
     <t>baz_4</t>
   </si>
   <si>
-    <t>Demo_5</t>
-  </si>
-  <si>
     <t>Foo_5</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>Foo_6</t>
   </si>
   <si>
-    <t>Bar_6</t>
-  </si>
-  <si>
     <t>baz_6</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>Demo_8</t>
   </si>
   <si>
-    <t>Foo_8</t>
-  </si>
-  <si>
     <t>Bar_8</t>
   </si>
   <si>
@@ -130,7 +121,7 @@
     <t>Foo_9</t>
   </si>
   <si>
-    <t>Bar_9</t>
+    <t>Null</t>
   </si>
   <si>
     <t>baz_9</t>
@@ -145,7 +136,7 @@
     <t>Bar_10</t>
   </si>
   <si>
-    <t>baz_10</t>
+    <t>NaN</t>
   </si>
   <si>
     <t>Demo_11</t>
@@ -364,10 +355,10 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1529,16 +1520,16 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="B7" t="s" s="10">
+      <c r="C7" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="C7" t="s" s="11">
+      <c r="D7" t="s" s="11">
         <v>23</v>
-      </c>
-      <c r="D7" t="s" s="11">
-        <v>24</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -1546,16 +1537,14 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="9">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s" s="10">
         <v>25</v>
       </c>
-      <c r="B8" t="s" s="10">
+      <c r="C8" s="12"/>
+      <c r="D8" t="s" s="11">
         <v>26</v>
-      </c>
-      <c r="C8" t="s" s="11">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s" s="11">
-        <v>28</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -1563,16 +1552,16 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s" s="11">
         <v>29</v>
       </c>
-      <c r="B9" t="s" s="10">
+      <c r="D9" t="s" s="11">
         <v>30</v>
-      </c>
-      <c r="C9" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s" s="11">
-        <v>32</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -1580,16 +1569,14 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" t="s" s="11">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="11">
         <v>33</v>
-      </c>
-      <c r="B10" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s" s="11">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s" s="11">
-        <v>36</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -1597,16 +1584,16 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s" s="11">
         <v>37</v>
-      </c>
-      <c r="B11" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s" s="11">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s" s="11">
-        <v>40</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -1614,16 +1601,16 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="9">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s" s="11">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s" s="11">
         <v>41</v>
-      </c>
-      <c r="B12" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s" s="11">
-        <v>44</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -1631,24 +1618,24 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="9">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s" s="11">
         <v>45</v>
-      </c>
-      <c r="B13" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s" s="11">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s" s="11">
-        <v>48</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -1656,8 +1643,8 @@
       <c r="G14" s="12"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -1665,8 +1652,8 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -1674,8 +1661,8 @@
       <c r="G16" s="12"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -1683,8 +1670,8 @@
       <c r="G17" s="12"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -1692,8 +1679,8 @@
       <c r="G18" s="12"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -1701,8 +1688,8 @@
       <c r="G19" s="12"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -1710,8 +1697,8 @@
       <c r="G20" s="12"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -1719,8 +1706,8 @@
       <c r="G21" s="12"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -1728,8 +1715,8 @@
       <c r="G22" s="12"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
